--- a/biology/Histoire de la zoologie et de la botanique/Eugene_Gaffney/Eugene_Gaffney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugene_Gaffney/Eugene_Gaffney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene S. Gaffney est un paléontologue américain, spécialiste reconnu des tortues. Un fossile d'une espèce de tortue marine importante dans l'histoire celle-ci, la Santanachelys gaffneyi, a été nommée en son honneur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat en 1969 avec une thèse sur The North American Baenoidea and the Cryptodire-Pleurodire Dichotomy à l'université Columbia où il enseigne depuis quelques années. Il entre ensuite au musée américain d'histoire naturelle ou il produit de nombreuses publications.
 </t>
@@ -542,7 +556,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Kurmademys, a New Side-Necked Turtle (Pelomedusoides: Bothremydidae) from the Late Cretaceous of India., vol. 3321, American Museum Novitates, 2001 (lire en ligne), p. 16.
 (en) Azabbaremys, a New Side-Necked Turtle (Pelomeducoides: Bothremydidae) from the Paleocene of Mali., vol. 3320, American Museum Novitates, 2001, 16 p..
